--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/Swaption Vol Curves v2.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/Swaption Vol Curves v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8071AA5-D96E-42A6-AF94-B6BAED684758}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1A1E4-D27B-4BBC-AFB5-32B85C75B304}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="10080" windowHeight="6795" tabRatio="471" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="630" windowWidth="26370" windowHeight="14820" tabRatio="471" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Data" sheetId="21" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="Instruments">'Market Data'!$B$21:$B$31</definedName>
     <definedName name="Volatilities">'Market Data'!$C$21:$C$31</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="179017" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -12233,7 +12233,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -12964,7 +12964,7 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="B1:F976"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
